--- a/reference/RC_SolveAlgorithm.xlsx
+++ b/reference/RC_SolveAlgorithm.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a88d59eb7980e77d/Families/30_Seanachan/桃園高中/自主學習計畫_Rubiks Cube Everywhere/10_學習過程記錄/30_Rubiks Cube by javascript/20_Code/Github/t908_DarkTheme/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{757F6B70-B9CA-4DF4-864E-8601C0D5B3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB43D12D-EA41-4D37-AB3D-703320F7D9DF}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{757F6B70-B9CA-4DF4-864E-8601C0D5B3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2B25EF2-5C97-4E8B-B026-D74404369950}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="17860" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="17500" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$C$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$C$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>- Left algorithm</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -534,7 +534,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -578,17 +578,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -598,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -619,9 +608,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
@@ -629,9 +615,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -914,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -946,7 +929,7 @@
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -954,7 +937,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -985,34 +968,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
+    <row r="10" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="10"/>
       <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
-      <c r="C11" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C14" s="1"/>
+    <row r="12" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.45">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.45">
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="2:2" ht="16" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
@@ -1023,15 +1000,9 @@
     <row r="19" spans="2:2" ht="16" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" ht="16" x14ac:dyDescent="0.45">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2" ht="16" x14ac:dyDescent="0.45">
-      <c r="B21" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
